--- a/biology/Botanique/Darwinia_(plante)/Darwinia_(plante).xlsx
+++ b/biology/Botanique/Darwinia_(plante)/Darwinia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Darwinia est un genre d'environ 70 espèces d'arbustes à feuillage persistant de la famille des Myrtaceae, endémique au sud-est et au sud-ouest de l'Australie. La majorité des espèces est originaire du sud de l'Australie-Occidentale, mais quelques espèces poussent en Australie-Méridionale, en Nouvelle-Galles du Sud et au Victoria. Le genre a été nommé en l'honneur d'Erasmus Darwin, grand-père de Charles Darwin. 
 Les espèces de Darwinia peuvent atteindre entre 20-300 cm de haut, avec bon nombre d'espèces rampantes. Les feuilles sont opposées, décussées, simples, petites, lancéolées à ovales, de 4 à 20 mm de long et 2 à 10 mm de large, pour la plupart avec une texture du cuir. Les fleurs sont simples ou groupées, de 2 à 30 mm de long, avec cinq pétales rouges, blanches ou verdâtres et dix étamines. 
@@ -515,7 +527,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Darwinia acerosa
 Darwinia apiculata
